--- a/data/output_sim/nosolar_export.xlsx
+++ b/data/output_sim/nosolar_export.xlsx
@@ -498,16 +498,16 @@
         <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>7638575</v>
+        <v>4277602</v>
       </c>
       <c r="H2" t="n">
-        <v>636547.92</v>
+        <v>356466.83</v>
       </c>
       <c r="I2" t="n">
-        <v>20927.6</v>
+        <v>11719.46</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>10260350</v>
+        <v>5745796</v>
       </c>
       <c r="H3" t="n">
-        <v>855029.17</v>
+        <v>478816.33</v>
       </c>
       <c r="I3" t="n">
-        <v>28110.55</v>
+        <v>15741.91</v>
       </c>
     </row>
     <row r="4">
@@ -556,16 +556,16 @@
         <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>13001100</v>
+        <v>7280616</v>
       </c>
       <c r="H4" t="n">
-        <v>1083425</v>
+        <v>606718</v>
       </c>
       <c r="I4" t="n">
-        <v>35619.45</v>
+        <v>19946.89</v>
       </c>
     </row>
     <row r="5">
@@ -585,16 +585,16 @@
         <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>9278850</v>
+        <v>5196156</v>
       </c>
       <c r="H5" t="n">
-        <v>773237.5</v>
+        <v>433013</v>
       </c>
       <c r="I5" t="n">
-        <v>25421.51</v>
+        <v>14236.04</v>
       </c>
     </row>
     <row r="6">
@@ -614,16 +614,16 @@
         <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>10420200</v>
+        <v>5835312</v>
       </c>
       <c r="H6" t="n">
-        <v>868350</v>
+        <v>486276</v>
       </c>
       <c r="I6" t="n">
-        <v>28548.49</v>
+        <v>15987.16</v>
       </c>
     </row>
     <row r="7">
@@ -643,16 +643,16 @@
         <v>85</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>15587250</v>
+        <v>8728860</v>
       </c>
       <c r="H7" t="n">
-        <v>1298937.5</v>
+        <v>727405</v>
       </c>
       <c r="I7" t="n">
-        <v>42704.79</v>
+        <v>23914.68</v>
       </c>
     </row>
     <row r="8">
@@ -672,16 +672,16 @@
         <v>85</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>15572550</v>
+        <v>8720628</v>
       </c>
       <c r="H8" t="n">
-        <v>1297712.5</v>
+        <v>726719</v>
       </c>
       <c r="I8" t="n">
-        <v>42664.52</v>
+        <v>23892.13</v>
       </c>
     </row>
     <row r="9">
@@ -701,16 +701,16 @@
         <v>85</v>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>14574350</v>
+        <v>8161636</v>
       </c>
       <c r="H9" t="n">
-        <v>1214529.17</v>
+        <v>680136.33</v>
       </c>
       <c r="I9" t="n">
-        <v>39929.73</v>
+        <v>22360.65</v>
       </c>
     </row>
   </sheetData>
